--- a/沈阳鹏斓面辅料采购程序/0.沈阳鹏斓面辅料采购程序.xlsx
+++ b/沈阳鹏斓面辅料采购程序/0.沈阳鹏斓面辅料采购程序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8340"/>
+    <workbookView windowWidth="19200" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1859,23 +1859,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="39">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1909,13 +1902,6 @@
       <color indexed="8"/>
       <name val="Dotum"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1979,9 +1965,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1999,17 +1985,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2030,17 +2007,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2060,23 +2029,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2090,9 +2053,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2107,6 +2085,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2114,16 +2100,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2184,13 +2163,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2202,13 +2181,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2220,121 +2205,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2352,6 +2241,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2364,18 +2331,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2383,6 +2338,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2662,6 +2641,36 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2681,32 +2690,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2714,8 +2702,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2743,409 +2742,386 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3472,10 +3448,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:O42"/>
+  <dimension ref="A2:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:O9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3486,252 +3462,266 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="2:3">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="2:3">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="2:3">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="2:5">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
     </row>
     <row r="7" ht="15.75" spans="2:13">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" ht="34.5" customHeight="1" spans="2:15">
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
     </row>
     <row r="9" ht="27.75" customHeight="1" spans="2:15">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
     </row>
     <row r="10" ht="15.75" spans="2:3">
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="72" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="73"/>
+      <c r="B13" s="74" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="72" t="s">
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="73"/>
+      <c r="B14" s="74" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="4" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="73"/>
+      <c r="B15" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="14" t="s">
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="73"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="73"/>
+      <c r="B16" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="14" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="73"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="73"/>
+      <c r="B17" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="73"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="69" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="69" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="4"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="69" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="72"/>
+      <c r="H28" s="69"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="72"/>
+      <c r="H29" s="69"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="72"/>
+      <c r="B32" s="69"/>
     </row>
     <row r="33" ht="16.5" spans="2:2">
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="76" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3761,8 +3751,8 @@
   <sheetPr/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:H37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3778,63 +3768,63 @@
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="3" t="s">
         <v>57</v>
       </c>
       <c r="K5" t="s">
@@ -3842,23 +3832,23 @@
       </c>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="3" t="s">
         <v>57</v>
       </c>
       <c r="K6" t="s">
@@ -3866,826 +3856,826 @@
       </c>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <v>21.7</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <v>21.7</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="17">
         <v>21.7</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="49" t="s">
+      <c r="K7" s="47" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <v>3.35</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <v>3.35</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="17">
         <v>3.35</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="14" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="49" t="s">
+      <c r="K8" s="47" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="17">
         <f>D7*D8</f>
         <v>72.695</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <f>E7*E8</f>
         <v>72.695</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="17">
         <f>F7*F8</f>
         <v>72.695</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <f>SUM(D9:F9)/3</f>
         <v>72.695</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="17">
         <f>D5*D8</f>
         <v>1172.5</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <f t="shared" ref="E10:F10" si="0">E5*E8</f>
         <v>850.9</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="17">
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="19">
         <f t="shared" ref="G10:G16" si="1">SUM(D10:F10)</f>
         <v>3028.4</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="17">
         <v>30</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="17">
         <v>20</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="17">
         <v>40</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="19">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K11" s="49" t="s">
+      <c r="K11" s="47" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="17">
         <f>D10-D11</f>
         <v>1142.5</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <f t="shared" ref="E12:F12" si="2">E10-E11</f>
         <v>830.9</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="17">
         <f t="shared" si="2"/>
         <v>965</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="19">
         <f t="shared" si="1"/>
         <v>2938.4</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <v>1180</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="17">
         <v>900</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="17">
         <v>1010</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="19">
         <f t="shared" si="1"/>
         <v>3090</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="17">
         <f>D13*D7</f>
         <v>25606</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="17">
         <f t="shared" ref="E14:F14" si="3">E13*E7</f>
         <v>19530</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="17">
         <f t="shared" si="3"/>
         <v>21917</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="19">
         <f t="shared" si="1"/>
         <v>67053</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="17">
         <v>25</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="17">
         <v>15</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="17">
         <v>20</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="19">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="17">
         <v>345</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <v>250</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="17">
         <v>298</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="19">
         <f t="shared" si="1"/>
         <v>893</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="17">
         <f>(D13-D15+D11)/D16</f>
         <v>3.43478260869565</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="17">
         <f t="shared" ref="E17:G17" si="4">(E13-E15+E11)/E16</f>
         <v>3.62</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="17">
         <f t="shared" si="4"/>
         <v>3.45637583892617</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="19">
         <f t="shared" si="4"/>
         <v>3.49384098544233</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="18" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25">
         <f>G14/G16</f>
         <v>75.0873460246361</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="20" ht="24.95" customHeight="1" spans="1:2">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="21" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" ht="24.95" customHeight="1" spans="1:12">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31" t="s">
+      <c r="G22" s="29"/>
+      <c r="H22" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
     </row>
     <row r="23" ht="24.95" customHeight="1" spans="1:12">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
     </row>
     <row r="24" ht="24.95" customHeight="1" spans="1:12">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
     </row>
     <row r="25" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40" t="s">
+      <c r="F25" s="37"/>
+      <c r="G25" s="38" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="26" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="4" t="s">
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="44">
         <v>5.8</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="45">
         <v>5.8</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="49" t="s">
+      <c r="F27" s="46"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="48">
         <v>0.8</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E28" s="49">
         <v>0.8</v>
       </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="49" t="s">
+      <c r="F28" s="50"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="54">
+      <c r="D29" s="52">
         <f>D27*D28</f>
         <v>4.64</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="49">
         <f t="shared" ref="E29" si="5">E27*E28</f>
         <v>4.64</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="53">
+      <c r="F29" s="50"/>
+      <c r="G29" s="51">
         <f>SUM(D29:F29)/3</f>
         <v>3.09333333333333</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
     </row>
     <row r="30" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="54">
+      <c r="D30" s="52">
         <f>D28*D23</f>
         <v>280</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E30" s="49">
         <f>(E23+F23)*E28</f>
         <v>443.2</v>
       </c>
-      <c r="F30" s="52"/>
-      <c r="G30" s="53">
+      <c r="F30" s="50"/>
+      <c r="G30" s="51">
         <f t="shared" ref="G30:G35" si="6">SUM(D30:F30)</f>
         <v>723.2</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
     </row>
     <row r="31" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="56">
+      <c r="D31" s="53">
         <v>30</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="54">
         <v>20</v>
       </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59">
+      <c r="F31" s="55"/>
+      <c r="G31" s="56">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="H31" s="49" t="s">
+      <c r="H31" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
     </row>
     <row r="32" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="54">
+      <c r="D32" s="52">
         <f>D30-D31</f>
         <v>250</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="49">
         <f t="shared" ref="E32" si="7">E30-E31</f>
         <v>423.2</v>
       </c>
-      <c r="F32" s="52"/>
-      <c r="G32" s="53">
+      <c r="F32" s="50"/>
+      <c r="G32" s="51">
         <f t="shared" si="6"/>
         <v>673.2</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="58">
         <v>150</v>
       </c>
-      <c r="E33" s="62">
+      <c r="E33" s="59">
         <v>240</v>
       </c>
-      <c r="F33" s="63"/>
-      <c r="G33" s="64">
+      <c r="F33" s="60"/>
+      <c r="G33" s="61">
         <f t="shared" si="6"/>
         <v>390</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="54">
+      <c r="D34" s="52">
         <f>D33*D27</f>
         <v>870</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="49">
         <f t="shared" ref="E34" si="8">E33*E27</f>
         <v>1392</v>
       </c>
-      <c r="F34" s="52"/>
-      <c r="G34" s="53">
+      <c r="F34" s="50"/>
+      <c r="G34" s="51">
         <f t="shared" si="6"/>
         <v>2262</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
     </row>
     <row r="35" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="D35" s="61">
+      <c r="D35" s="58">
         <v>25</v>
       </c>
-      <c r="E35" s="62">
+      <c r="E35" s="59">
         <v>15</v>
       </c>
-      <c r="F35" s="63"/>
-      <c r="G35" s="64">
+      <c r="F35" s="60"/>
+      <c r="G35" s="61">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="54">
+      <c r="D36" s="52">
         <f>(D33+D31-D35)/D16</f>
         <v>0.449275362318841</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="49">
         <f>(E33+E31-E35)/(E23+F23)</f>
         <v>0.442238267148014</v>
       </c>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53">
+      <c r="F36" s="50"/>
+      <c r="G36" s="51">
         <f>(G33+G31-G35)/G16</f>
         <v>0.447928331466965</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
     </row>
     <row r="37" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="70">
+      <c r="D37" s="64"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67">
         <f>G34/G16</f>
         <v>2.53303471444569</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
     </row>
     <row r="38" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="39" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="40" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="18" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="41" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="16" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="42" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="43" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="44" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="16" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="45" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="16" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="46" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="47" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="16" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="48" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="49" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="50" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="16" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="51" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="16" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="52" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="16" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="53" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="16" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="54" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="55" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="56" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="16" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="57" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="58" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="16" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="59" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="60" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="16" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="61" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="16" t="s">
         <v>155</v>
       </c>
     </row>

--- a/沈阳鹏斓面辅料采购程序/0.沈阳鹏斓面辅料采购程序.xlsx
+++ b/沈阳鹏斓面辅料采购程序/0.沈阳鹏斓面辅料采购程序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1978,6 +1978,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -1986,7 +2002,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2000,9 +2016,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2010,6 +2042,21 @@
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2031,53 +2078,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2205,6 +2205,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2212,6 +2218,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2241,13 +2265,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2283,37 +2307,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2355,13 +2355,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2660,6 +2660,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2671,21 +2686,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2750,145 +2750,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3450,8 +3450,8 @@
   <sheetPr/>
   <dimension ref="A2:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3611,54 +3611,73 @@
       <c r="D17" s="75"/>
       <c r="E17" s="73"/>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="69" t="s">
+    <row r="19" spans="2:6">
+      <c r="B19" s="74" t="s">
         <v>22</v>
       </c>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="75"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="69" t="s">
+    <row r="22" spans="2:6">
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="74" t="s">
         <v>26</v>
       </c>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="2:6">
+      <c r="B25" s="75" t="s">
         <v>28</v>
       </c>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="69" t="s">
@@ -3751,8 +3770,8 @@
   <sheetPr/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/沈阳鹏斓面辅料采购程序/0.沈阳鹏斓面辅料采购程序.xlsx
+++ b/沈阳鹏斓面辅料采购程序/0.沈阳鹏斓面辅料采购程序.xlsx
@@ -1965,6 +1965,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1975,6 +1982,74 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1995,57 +2070,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2054,30 +2078,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2181,6 +2181,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2199,49 +2253,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2253,25 +2265,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2289,31 +2295,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2331,37 +2349,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2660,6 +2660,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2671,21 +2686,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2750,10 +2750,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2762,133 +2762,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3450,8 +3450,8 @@
   <sheetPr/>
   <dimension ref="A2:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3770,8 +3770,8 @@
   <sheetPr/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
